--- a/Franck_Hertz/Franck_Hertz.xlsx
+++ b/Franck_Hertz/Franck_Hertz.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hg_176、1.51、2.06" sheetId="1" r:id="rId1"/>
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D161"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1796,8 +1796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5086,8 +5086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
